--- a/results/lasso_symptoms/lasso_coefs_odds_ratios.xlsx
+++ b/results/lasso_symptoms/lasso_coefs_odds_ratios.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -402,29 +402,29 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>genderW</t>
+          <t>sexW</t>
         </is>
       </c>
       <c r="B2">
-        <v>1.089188841900011</v>
+        <v>1.088816206584637</v>
       </c>
       <c r="C2">
-        <v>0.8716784805882667</v>
+        <v>0.8728343833628206</v>
       </c>
       <c r="D2">
-        <v>1.360974670980601</v>
+        <v>1.358242473393215</v>
       </c>
       <c r="E2">
-        <v>0.08543323745725513</v>
+        <v>0.08509105705756438</v>
       </c>
       <c r="F2">
-        <v>0.1136591678221386</v>
+        <v>0.1128084545024383</v>
       </c>
       <c r="G2">
-        <v>0.7516616485433599</v>
+        <v>0.7542968072107146</v>
       </c>
       <c r="H2">
-        <v>0.4522545594013633</v>
+        <v>0.450671019066321</v>
       </c>
     </row>
     <row r="3">
@@ -434,81 +434,53 @@
         </is>
       </c>
       <c r="B3">
-        <v>0.2727610210074735</v>
+        <v>0.292612920466257</v>
       </c>
       <c r="C3">
-        <v>0.214141648555759</v>
+        <v>0.2308936461724354</v>
       </c>
       <c r="D3">
-        <v>0.3474269255084549</v>
+        <v>0.3708301317215452</v>
       </c>
       <c r="E3">
-        <v>-1.299159248091811</v>
+        <v>-1.228904633933372</v>
       </c>
       <c r="F3">
-        <v>0.1234503937843688</v>
+        <v>0.1208662243770591</v>
       </c>
       <c r="G3">
-        <v>-10.52373514790934</v>
+        <v>-10.16747764122781</v>
       </c>
       <c r="H3">
-        <v>6.715733112362544E-26</v>
+        <v>2.769885903015932E-24</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>manufacturer</t>
+          <t>omicron</t>
         </is>
       </c>
       <c r="B4">
-        <v>1.58452524761846</v>
+        <v>0.592748752526868</v>
       </c>
       <c r="C4">
-        <v>1.296492064399926</v>
+        <v>0.4277193760691653</v>
       </c>
       <c r="D4">
-        <v>1.936548883931978</v>
+        <v>0.8214523430085202</v>
       </c>
       <c r="E4">
-        <v>0.4602848341452493</v>
+        <v>-0.5229846585907254</v>
       </c>
       <c r="F4">
-        <v>0.1023603650560295</v>
+        <v>0.1664843363523496</v>
       </c>
       <c r="G4">
-        <v>4.496709579858386</v>
+        <v>-3.141344525552686</v>
       </c>
       <c r="H4">
-        <v>6.90131510485094E-06</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>omicron</t>
-        </is>
-      </c>
-      <c r="B5">
-        <v>0.5235415934521391</v>
-      </c>
-      <c r="C5">
-        <v>0.3743934406965458</v>
-      </c>
-      <c r="D5">
-        <v>0.732106309246389</v>
-      </c>
-      <c r="E5">
-        <v>-0.6471387991971003</v>
-      </c>
-      <c r="F5">
-        <v>0.1710792940518469</v>
-      </c>
-      <c r="G5">
-        <v>-3.782683362026149</v>
-      </c>
-      <c r="H5">
-        <v>0.0001551467247373101</v>
+        <v>0.001681740722909053</v>
       </c>
     </row>
   </sheetData>
